--- a/src/test/java/resources/login.xlsx
+++ b/src/test/java/resources/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto\OrangeHRM_automation\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1777DC78-AD36-4E30-83A3-0F7D8D74B87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE239B-2363-4F1F-810B-8ED92913A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF87C2EC-8AC0-4D24-93C2-82D22602AAAD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Expect</t>
   </si>
@@ -59,10 +59,7 @@
     <t>admin124</t>
   </si>
   <si>
-    <t>admin125</t>
-  </si>
-  <si>
-    <t>admin126</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -440,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902A4726-FC16-4A86-8B98-6606951C2DE1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,10 +480,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -496,10 +493,20 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/test/java/resources/login.xlsx
+++ b/src/test/java/resources/login.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto\OrangeHRM_automation\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE239B-2363-4F1F-810B-8ED92913A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E491F-2594-46CD-B463-4DF598C57382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF87C2EC-8AC0-4D24-93C2-82D22602AAAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF87C2EC-8AC0-4D24-93C2-82D22602AAAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Expect</t>
   </si>
@@ -60,6 +61,24 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>FristName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>HRMOrang1</t>
+  </si>
+  <si>
+    <t>HRMOrang2</t>
+  </si>
+  <si>
+    <t>HRMOrang3</t>
+  </si>
+  <si>
+    <t>HRMOrang4</t>
   </si>
 </sst>
 </file>
@@ -439,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902A4726-FC16-4A86-8B98-6606951C2DE1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,4 +533,44 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D54CE0-44C5-4379-A47C-6E7E7DE47913}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>